--- a/InputFiles/CDS/CDS_StaticData.xlsx
+++ b/InputFiles/CDS/CDS_StaticData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leungvw/git/Commons_Automation/InputFiles/CDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FFA1EC-BDD4-5B4D-A7C0-A01D96EBB7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA520FA4-1EC9-4D4B-B405-1DA438BA0D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -257,9 +257,6 @@
   </si>
   <si>
     <t>Learn more about importing files from CDS Portal to Velsera</t>
-  </si>
-  <si>
-    <t>https://github.com/CBIIT/datacommons-assets/raw/main/cds/about/CDSPortalUserGuide.pdf</t>
   </si>
   <si>
     <t>DataModelDescription</t>
@@ -333,8 +330,11 @@
 • Learn more about importing files from CDS Portal to Velsera</t>
   </si>
   <si>
-    <t>The model works with diverse data types, offering robust yet flexible infrastructure while adhering to FAIR (Findability, Accessibility, Interoperability, and Reuse) data principles. CRDC Data Hub continues to evolve to meet the data needs for various NCI-funded programs.
-All code necessary to use the Bento platform on which the CRDC Data Hub portal is built is provided in the form of Docker containers. However, the Bento code is also available to the public for research and forking and pull requests. There are a number of CRDC Data Model resources to explore on the CDS GitHub page including the CRDC Core Data Model: https://github.com/CBIIT/cds-model.</t>
+    <t>https://raw.githubusercontent.com/CBIIT/bento-cds-static-content/qa/about/CDSPortalUserGuide.pdf</t>
+  </si>
+  <si>
+    <t>The model works with diverse data types, offering robust yet flexible infrastructure while adhering to FAIR (Findability, Accessibility, Interoperability, and Reuse) data principles. CRDC Data Submission portal continues to evolve to meet the data needs for various NCI-funded programs.
+All code necessary to use the Bento platform on which the CRDC Data Submission portal is built is provided in the form of Docker containers. However, the Bento code is also available to the public for research and forking and pull requests. There are a number of CRDC Data Model resources to explore on the CDS GitHub page including the CRDC Core Data Model: https://github.com/CBIIT/cds-model.</t>
   </si>
 </sst>
 </file>
@@ -704,7 +704,7 @@
     </row>
     <row r="4" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>22</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="5" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>23</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="6" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>24</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="7" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>25</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="8" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>26</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>27</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="10" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>28</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="11" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>29</v>
@@ -844,7 +844,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -958,8 +958,8 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A3" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -993,7 +993,7 @@
         <v>59</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1023,7 +1023,7 @@
         <v>62</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>71</v>
@@ -1070,7 +1070,7 @@
         <v>76</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="3" spans="1:3" ht="140" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>95</v>
@@ -1132,24 +1132,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
